--- a/data/Sample data.xlsx
+++ b/data/Sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Option Backtest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FDA0B-4A35-4321-8212-2AEE0773AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E14BC-6B58-4541-88E5-45BE806E6D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="E2" s="11">
         <f>$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F2" s="9">
         <v>24572.85</v>
@@ -664,13 +664,13 @@
       </c>
       <c r="E3" s="31">
         <f>$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F3" s="8">
         <v>24535.75</v>
       </c>
       <c r="J3" s="32">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -690,13 +690,13 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4" si="0">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F4" s="9">
         <v>24572.85</v>
       </c>
       <c r="J4" s="32">
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
       </c>
       <c r="E5" s="31">
         <f t="shared" ref="E5" si="1">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F5" s="8">
         <v>24535.75</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" ref="E6:E10" si="3">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F6" s="9">
         <v>24865.4</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="E7" s="31">
         <f t="shared" ref="E7:E11" si="4">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F7" s="8">
         <v>24886.95</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" ref="E8" si="5">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F8" s="9">
         <v>24865.4</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="E9" s="31">
         <f t="shared" ref="E9" si="6">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F9" s="8">
         <v>24886.95</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="3"/>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F10" s="9">
         <v>25221.95</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="E11" s="31">
         <f t="shared" si="4"/>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F11" s="8">
         <v>25198.95</v>
@@ -877,7 +877,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" ref="E12" si="7">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F12" s="9">
         <v>25221.95</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="E13" s="31">
         <f t="shared" ref="E13" si="8">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F13" s="8">
         <v>25198.95</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" ref="E14" si="9">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F14" s="9">
         <v>25190.55</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="E15" s="31">
         <f t="shared" ref="E15" si="10">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F15" s="8">
         <v>25200.5</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" ref="E16" si="11">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F16" s="9">
         <v>25190.55</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="E17" s="31">
         <f t="shared" ref="E17" si="12">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F17" s="8">
         <v>25200.5</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" ref="E18" si="13">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F18" s="9">
         <v>24631.45</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E19" s="31">
         <f t="shared" ref="E19" si="14">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F19" s="8">
         <v>24620.7</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" ref="E20" si="15">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F20" s="9">
         <v>24631.45</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E21" s="31">
         <f t="shared" ref="E21" si="16">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F21" s="8">
         <v>24620.7</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" ref="E22" si="17">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F22" s="9">
         <v>25126.25</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E23" s="31">
         <f t="shared" ref="E23" si="18">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F23" s="8">
         <v>25167.4</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" ref="E24" si="19">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F24" s="9">
         <v>25126.25</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" s="31">
         <f t="shared" ref="E25" si="20">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F25" s="8">
         <v>25167.4</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" ref="E26" si="21">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F26" s="9">
         <v>25170.9</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E27" s="31">
         <f t="shared" ref="E27" si="22">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F27" s="8">
         <v>25154.400000000001</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" ref="E28" si="23">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F28" s="9">
         <v>25170.9</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E29" s="31">
         <f t="shared" ref="E29" si="24">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F29" s="8">
         <v>25154.400000000001</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" ref="E30" si="25">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F30" s="9">
         <v>25833.3</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E31" s="31">
         <f t="shared" ref="E31" si="26">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F31" s="8">
         <v>25859.8</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" ref="E32" si="27">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F32" s="9">
         <v>25833.3</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E33" s="31">
         <f t="shared" ref="E33" si="28">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F33" s="8">
         <v>25859.8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" ref="E34" si="29">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F34" s="9">
         <v>25885.599999999999</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E35" s="31">
         <f t="shared" ref="E35" si="30">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F35" s="8">
         <v>25835.05</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" ref="E36" si="31">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F36" s="9">
         <v>25885.599999999999</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E37" s="31">
         <f t="shared" ref="E37" si="32">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F37" s="8">
         <v>25835.05</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" ref="E38" si="33">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F38" s="9">
         <v>25608.7</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E39" s="31">
         <f t="shared" ref="E39" si="34">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F39" s="8">
         <v>25618.6</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" ref="E40" si="35">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F40" s="9">
         <v>25608.7</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E41" s="31">
         <f t="shared" ref="E41" si="36">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F41" s="8">
         <v>25618.6</v>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" ref="E42" si="37">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F42" s="9">
         <v>25555.55</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" s="31">
         <f t="shared" ref="E43" si="38">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F43" s="8">
         <v>25515.1</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" ref="E44" si="39">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F44" s="9">
         <v>25490.1</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E45" s="31">
         <f t="shared" ref="E45" si="40">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F45" s="8">
         <v>25481.65</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" ref="E46" si="41">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F46" s="9">
         <v>25605.9</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="E47" s="31">
         <f t="shared" ref="E47" si="42">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F47" s="8">
         <v>25590.35</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" ref="E48" si="43">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F48" s="9">
         <v>25691.3</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E49" s="31">
         <f t="shared" ref="E49" si="44">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F49" s="8">
         <v>25693.25</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" ref="E50" si="45">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F50" s="9">
         <v>25691.3</v>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="E51" s="31">
         <f t="shared" ref="E51" si="46">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F51" s="8">
         <v>25693.25</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" ref="E52" si="47">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F52" s="9">
         <v>25676.55</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E53" s="31">
         <f t="shared" ref="E53" si="48">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F53" s="8">
         <v>25693.85</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" ref="E54" si="49">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F54" s="9">
         <v>25894.55</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E55" s="31">
         <f t="shared" ref="E55" si="50">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F55" s="8">
         <v>25887.4</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" ref="E56" si="51">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F56" s="9">
         <v>25878.7</v>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E57" s="31">
         <f t="shared" ref="E57" si="52">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F57" s="8">
         <v>25888.65</v>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" ref="E58" si="53">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F58" s="9">
         <v>25766.3</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E59" s="31">
         <f t="shared" ref="E59" si="54">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F59" s="8">
         <v>25886.25</v>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" ref="E60" si="55">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F60" s="9">
         <v>25993.95</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E61" s="31">
         <f t="shared" ref="E61" si="56">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F61" s="8">
         <v>26010.05</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E62" s="11">
         <f t="shared" ref="E62" si="57">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F62" s="9">
         <v>25932.25</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E63" s="31">
         <f t="shared" ref="E63" si="58">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F63" s="8">
         <v>25967.85</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" ref="E64" si="59">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F64" s="9">
         <v>25932.25</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E65" s="31">
         <f t="shared" ref="E65" si="60">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F65" s="8">
         <v>25967.85</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E66" s="11">
         <f t="shared" ref="E66" si="61">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F66" s="9">
         <v>25942.400000000001</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E67" s="31">
         <f t="shared" ref="E67" si="62">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F67" s="8">
         <v>25923.200000000001</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E68" s="11">
         <f t="shared" ref="E68" si="63">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F68" s="9">
         <v>26054.85</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="E69" s="31">
         <f t="shared" ref="E69" si="64">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F69" s="8">
         <v>26052.15</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E70" s="11">
         <f t="shared" ref="E70" si="66">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F70" s="9">
         <v>26208.35</v>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="E71" s="31">
         <f t="shared" ref="E71" si="67">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F71" s="8">
         <v>26187.200000000001</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="E72" s="11">
         <f t="shared" ref="E72" si="68">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F72" s="9">
         <v>26070.35</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E73" s="31">
         <f t="shared" ref="E73" si="69">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F73" s="8">
         <v>26078.5</v>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="E74" s="11">
         <f t="shared" ref="E74" si="70">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F74" s="9">
         <v>26039.05</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E75" s="31">
         <f t="shared" ref="E75" si="71">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F75" s="8">
         <v>25977.200000000001</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="E76" s="11">
         <f t="shared" ref="E76" si="72">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F76" s="9">
         <v>25894.5</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E77" s="31">
         <f t="shared" ref="E77" si="73">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F77" s="8">
         <v>25956.9</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E78" s="11">
         <f t="shared" ref="E78" si="74">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F78" s="9">
         <v>25894.5</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="E79" s="31">
         <f t="shared" ref="E79" si="75">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F79" s="8">
         <v>25956.9</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="E80" s="11">
         <f t="shared" ref="E80" si="76">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F80" s="9">
         <v>25899.8</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E81" s="31">
         <f t="shared" ref="E81" si="77">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F81" s="8">
         <v>25883.4</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="E82" s="11">
         <f t="shared" ref="E82" si="78">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F82" s="9">
         <v>26191.35</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E83" s="31">
         <f t="shared" ref="E83" si="79">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F83" s="8">
         <v>26199.4</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="E84" s="11">
         <f t="shared" ref="E84" si="80">$J$4</f>
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F84" s="9">
         <v>26185.95</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E85" s="31">
         <f t="shared" ref="E85" si="81">$J$3</f>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F85" s="8">
         <v>26211.5</v>
